--- a/supp_tables/sup_tab2_cluster_table.xlsx
+++ b/supp_tables/sup_tab2_cluster_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkl\Dropbox\BIO267_group\Helen_folder\papers\angiogenesis\oup-authoring-template\sup_mat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkl\Dropbox\BIO267_group\Helen_folder\papers\angiogenesis\oup-authoring-template\revisions\first\sup_mat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,113 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>PON2,PON3,PON1,FIG4,CHCHD10,PFN1,DAO,CHMP2B,CCNF,OPTN,CFAP410,UBQLN2,VCP,VAPB,HNRNPA1,ERBB4,FUS,ANXA11,ANG,GLE1,SOD1,SQSTM1,TARDBP,C9orf72,MATR3,CHEK2,RB1,TP53,ATP7B</t>
-  </si>
-  <si>
-    <t>UBQLN2,FUS,HSPA9,DAO,APOOL,APOA2,PON1,EHHADH,UBC,CCNF,EGFR,VAPA,APOB,FUCA2,PON3,ERBB4,VAPB,HSPA8,FIG4,CLU,CHMP2B,HGS,PFN1,CHCHD10,PIK3C2A,DVL2,PIKFYVE,OPTN,HNRNPA1,VCP,PPP2R1A,CKAP4</t>
-  </si>
-  <si>
-    <t>KIF1B,DLST,SDHAF2,VHL,SDHA,SDHD,SDHB,SDHC,SLC25A11,FH,NF1,MAX,MDH2,MEN1,TSC1,TSC2,PRKAR1A</t>
-  </si>
-  <si>
-    <t>ATP6V0C,COPB1,NOS1,SDHD,MED1,KIF1B,BCL2L1,SURF1,MDH2,NAPRT,MAPK1,PCK2,ACO2,IQGAP1,AKT1,NF1,PRKAR1A,PSMD1,TRAP1,ATP5A1,FH,UBE3A,ASL,CREBBP,CDC42,CASP8,PRKACA,PPP2R5A,SMAD2,MAX,SURF4,PSMA4,NR3C1,CFTR,ME1,RELA,DLD,LAMTOR1,SMAD3,SDHAF2,HSP90AB1,LAMTOR3,KIF22,PSMB9,NDUFAB1,ARF5,ACLY,AJUBA,MEN1,CASP7,PCK1,TSC1,TSC2,FUCA2,NRAS,BTRC,ZW10,SKP2,HIST2H2BE,PPP5C,SDHA,SDHB,APOA1,ATP5B,PPP2CB,MRPL11,CCNE2,DLST,GSK3B,INS,LAMB1,PPP2CA,VHL,CDC20,CDC5L,PPP2R5D,SDC2,SDHC,QPRT,RXRA,UQCRC1,CYCS</t>
-  </si>
-  <si>
-    <t>PTEN,PIK3CA,KLLN,SDHD,SDHB,SDHC,SEC23B,USF3,AKT1,CCBE1,FAT4,ADAMTS3,ENPP1,ABCC6,PORCN,ATP7A,NOTCH2</t>
-  </si>
-  <si>
-    <t>PMPCA,SDHD,EP300,PPP2R5B,AK3,PTEN,COL7A1,THBS1,NDUFB8,MAPK1,ATP5D,AKT1,RBX1,PSMD1,TRAP1,RBBP5,TMED2,WNT3,ITGB1,UBC,CASP8,ITGB3,GZMB,SMAD2,CDK1,CTNNB1,PSMA4,SEC23B,CBLB,PYGB,KEAP1,COMMD9,CREB1,FJX1,CAT,ADAMTS3,ATP5H,BST1,NOTCH4,EGFR,APOB,GYS2,SEC24D,COX17,NOTCH2,ATP7A,ADAM10,P4HB,SDHB,SDHA,ENPP1,SOD3,SAR1B,PIK3CA,PORCN,COL1A1,PPP2CB,EGF,CTSC,COL4A5,SAR1A,VHL,FAT4,AGO2,CDC5L,NGFR,ACTR2,SDHC,GPX7,QPRT,SOD1,HLA-E,SEC13,WNT5A,WNT1,CYCS,PRKCD,WNT3A,ATOX1,CS</t>
-  </si>
-  <si>
-    <t>ALK,NOTCH3,APP</t>
-  </si>
-  <si>
-    <t>APP,PLCG1,PIK3CA,ALK,ADAM10,EGFR,NOTCH3</t>
-  </si>
-  <si>
-    <t>SH2B3,CALR,MPL,JAK2,TET2,GNA14,PIGA</t>
-  </si>
-  <si>
-    <t>CBL,FN1,CALR,RPS27A,ITGB1,TET2,UBC,MPL,JAK2,PIGA,GNA14,APOB,SKP1,EPOR,PLCG1,MAPK14,VAMP8,PIK3R2,STAT1,PHC2,SOCS3,LCK,HLA-A,RAB5C,ASXL1,HLA-E,RAP1B,PIGR,PCGF1,SH2B3,CMTM6,GRB2,PIK3CA,FPR2,CEACAM6</t>
-  </si>
-  <si>
-    <t>PDGFRA,SDHA,SDHB,SDHC,KIT,TP53,STK11</t>
-  </si>
-  <si>
-    <t>BAX,CDC37,EGFR,KIT,AHSA1,KRAS,NGFR,PIK3R2,PDGFRA,SDHC,NGF,TP53,SIRT1,STK11,SDHA,SDHB,CYCS,TRAP1,MAPK8,HSP90AA1</t>
-  </si>
-  <si>
-    <t>CYSLTR2,BAP1,GNA11,GNAQ</t>
-  </si>
-  <si>
-    <t>TACR1,BAP1,GNAQ,RPS27A,CYSLTR2,MAPK14,GNA11,PHC2</t>
-  </si>
-  <si>
-    <t>ENG,GDF2,ACVRL1,SMAD4,RASA1,GLMN,EIF2AK4</t>
-  </si>
-  <si>
-    <t>ACVRL1,RUNX2,RPS27A,SPSB1,ENG,EIF2S3,TGFB1,EIF2AK4,GNB2L1,ACVR2A,RASA1,MAPK1,GLMN,GDF2,SMURF1,DNAJC3,FKBP1A,ATG7,WWP1,SMURF2,SMAD4,MTOR</t>
-  </si>
-  <si>
-    <t>SBDS,EFL1,SRP54,DNAJC21,GBA,CXCR4</t>
-  </si>
-  <si>
-    <t>GBA,RPS12,SBDS,CCT7,EIF6,RPS27A,EFTUD1,PA2G4,RPL18A,SRP54,CD4,C3,GNB2L1,CXCR4,PSAP</t>
-  </si>
-  <si>
-    <t>BCR,ABL1,FSHR</t>
-  </si>
-  <si>
-    <t>ABL1,FSHR,GNB3,BCR,FGF23,PTH,MAPK14</t>
-  </si>
-  <si>
-    <t>TNFRSF1B,GJC2,VEGFC,FLT4</t>
-  </si>
-  <si>
-    <t>FLT4,CSK,RAP1A,VEGFC,TNFRSF1B,ADAM10,TIMP1</t>
-  </si>
-  <si>
-    <t>KRIT1,GNAQ,AIRE,ACVR1,COL18A1,NDP,HGD,LRP5,NF2</t>
-  </si>
-  <si>
-    <t>NF2,LRP5,ARF6,CBL,GNAQ,COL18A1,GSTZ1,NDP,CDC42,ITGB3,EGFR,LAMB1,TACR1,FUCA2,BDKRB1,CTSD,C3,ACTR2,CFTR,ACVR2A,GGH,PAK1,MAPK1,CDH2,KNG1,ITGA3,ADAM10,RAP1B,DVL2,SLC9A3R1,FZD4,SMURF1,GNB3,RAC1,VCL,RAP1A,PIK3CA,ACVR1,PSMD1,BMP4,KRIT1,CTNNA1,HGD</t>
-  </si>
-  <si>
-    <t>PDGFB,FH</t>
-  </si>
-  <si>
-    <t>ME1,APOA2,PDGFB,TIMP1,FH</t>
-  </si>
-  <si>
-    <t>TSC1,TSC2,GLA</t>
-  </si>
-  <si>
-    <t>GLA,MAPK1,TSC1,TSC2</t>
-  </si>
-  <si>
-    <t>SF3B1,TET2</t>
-  </si>
-  <si>
-    <t>TET2,SF3B1,HIST1H2AJ,ASXL1</t>
-  </si>
-  <si>
-    <t>PTEN,ECM1</t>
-  </si>
-  <si>
-    <t>TIMP3,TP53,PTEN,ECM1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>GBA,TSPYL1</t>
-  </si>
-  <si>
     <t>Cluster_id</t>
   </si>
   <si>
@@ -136,6 +34,96 @@
   </si>
   <si>
     <t>ASP_expanded_genes</t>
+  </si>
+  <si>
+    <t>GBA,SBDS,EFL1,SRP54,DNAJC21,ECM1,TNFRSF1B,FLT4,GJC2,VEGFC,PTEN</t>
+  </si>
+  <si>
+    <t>PTEN,CCBE1,FAT4,ADAMTS3,PORCN,ACVR1,KLLN,PIK3CA,AKT1,SDHD,SDHB,SDHC,SEC23B,USF3,HGD,ERCC6,ERCC8,ERCC5,ERCC1,ERCC4,ATP7A,NF1,ABCC6,ENPP1,NOTCH2</t>
+  </si>
+  <si>
+    <t>TRDN,CD47,ATP5J2,TOP3A,ATP5A1,HPD,RFC3,CNOT4,PNP,FANCA,POU2F1,DVL2,TK1,GCLC,RFC4,RRM1,ARRB2,COL1A1,SDHD,SEC23B,COL1A2,SNW1,HES1,NELFB,SIRT1,GDF2,XAB2,GTF2A1,ATF2,NUP153,ALB,XRCC1,MDH1,MCM3,ALK,DLAT,LAMTOR1,RNMT,TOPBP1,PPP2R5B,SMAD1,COX5B,HIST1H2AA,HSP90AB1,GPC3,FBN1,DHFR,APOB,SUPT5H,MTR,CDKN1B,ARID1A,MSH6,ATP7A,GPX1,NDNL2,CCNH,UBE2D1,PAH,PSMC4,CTCF,RAD23B,WNT10B,LRP6,EIF3F,CCS,MAT1A,PSMB6,GPX3,SMURF1,CWC22,SAR1A,ERCC4,LAMA4,WRN,WNT4,CFTR,WNT8B,IDH3A,RBM22,SDHA,XRCC5,ITPA,PEBP1,SUCLG2,GLE1,UVSSA,ILK,USP7,RYR1,ISY1,SPRED1,HIST1H2AH,DRD2,HIPK2,SH2D3C,EIF1AX,TCF7L2,NGF,IBSP,CUL4B,RAD52,PEF1,YAP1,SHMT2,CHD4,HPRT1,UBE2D3,CRBN,CDT1,NCOR2,ADSL,SDC4,COPS5,NUP155,SEC24D,ADRBK1,SEC16A,DNMT1,WNT9B,TSPAN33,CDC40,ATP5B,ADK,EIF3E,HNF1A,NUMB,ENPP1,ENTPD8,PSMC1,APH1A,CTBP1,SEC24B,BMP7,NCL,TGFB1,ACO2,RER1,FANCG,FANCI,KEAP1,GMPR,BRE,WNT3A,ATRIP,HMGB1,PARD6A,USP10,IMPDH2,SEC24C,TAB1,CDC45,P4HB,BMP2,FKBP4,ADSS,P4HA2,PSEN1,C19orf40,P4HA1,AP2A1,MLST8,ATXN1,IMPDH1,SEC22B,HDAC4,SIRT3,FANCE,GLI3,UNG,RUVBL2,CXCR4,MCM6,GPT2,XRCC6,UBE2N,NBN,EHMT2,SUCLG1,PTCH1,APC,ENG,GAPDH,TPI1,TNKS,WNT9A,LMAN1,APRT,FURIN,SDC1,NCBP1,DDB1,POLA1,PSENEN,EXO1,ERCC1,DDA1,IGF1,G3BP1,HRC,HDAC6,GGT5,HFE2,PDK2,COL3A1,EIF4EBP1,SDHC,NME1,RRAGC,NDUFA2,DDB2,NOTCH2,RPS6KB1,TELO2,MDH2,AES,FANCF,NT5E,CS,ATP2A2,EIF3D,A2M,CTGF,PDZD11,SUV39H1,LRP1,MUS81,NOG,ARRB1,H2AFZ,CDK5,DTYMK,PPP3CA,YEATS4,NDUFV1,ITGB2,IDH1,PDE4D,MDK,HSPA5,NR3C1,APOA1,MCM5,PCBD1,ATP5D,HSPD1,GSR,KDR,CUL3,PRKCA,HSCB,NDN,ATOX1,PDHB,UBQLN1,NPM1,ERCC6,NDUFA9,CUL4A,BCL2L1,BMPR1A,IRS1,VDAC1,BRIP1,ITGB4,GNB1,PARK7,ASPM,IGF1R,SCFD1,GTF2F1,GPX8,AMPD2,SOST,ACSS2,WNT1,CWC25,KAT5,MSH2,RRM2,DDC,NCOA3,CANX,DHX8,PSMC2,ACVR2A,POLR2I,COPS4,PARP1,PLEKHA7,CEBPA,SMO,TYMS,CTPS1,APP,AKT2,MTA1,KDM1A,XPA,ITGB5,DLD,SNCA,MCAM,RUNX2,WNT2,RYR2,NGFR,FH,GSK3A,SRI,PSMC5,WNT7A,EDN1,PREB,UBTF,FGF2,DHX38,DCAF7,NDUFS5,TAT,RAN,TPR,CSNK1A1,FLT4,NCOA1,MCM4,SUCLA2,SMAD9,EIF3M,CDK7,PPP2R5A,GSS,RNF111,ATP6V1F,GOT1,SDC2,SMARCB1,POLR1B,XPC,RAB11A,ADSSL1,POLR2C,SAR1B,HSPA9,DUT,SKP2,CDKN1A,ACVR1,TOMM20,SUPT4H1,COA6,NCSTN,KAT2A,IL4R,PRKDC,SLU7,ADRB2,SEC13,TMED10,HUS1,IGFBP3,TOMM40,DVL3,EZH2,NUP214,OGDH,NCBP2,E2F1,RAD9A,GOLPH3,ADAMTS3,RAD50,PITRM1,SMAD5,ITPR1,GPX6,PRKACA,ITGAV,PMPCB,SOD2,NELFE,WNT11,AQR,AHCYL1,AGXT,GPX2,DVL1,GATA4,SMURF2,ATR,KLHL12,HGD,FANCC,ENTPD3,SUMO1,EIF4E,BMPR2,RAD1,ATIC,WNT8A,SPARC,RRN3,CLU,USP24,PDC,MMP2,SMC3,ATXN3,CETN2,SIRT7,ENTPD1,MIOS,COMT,PDCL,COX17,PPARGC1A,USP4,SOD1,AXIN1,FANCD2,E2F4,RRAGA,MRE11A,ERCC8,RRAGB,ENTPD5,BARD1,ATP6V1A,PRKCZ,WNT2B,CCDC94,TLE1,TGFBR2,ISY1-RAB43,NFATC2,RPTOR,IDH3B,ADAM10,SPR,DCN,PSEN2,CAT,PSMD2,MTA2,COL5A2,DNA2,RBBP8,POLE,P4HA3,CDKN2A,RORA,NDUFV2,SORT1,FEN1,GTF2H1,WNT5A,SDHB,SP1,GOT2,CTNNA1,ABL1,EWSR1,RING1,IDH3G,DCK,COX4I1,HSPB3,SMAD7,FKBP1A,QDPR,NF1,PDGFRB,PCK1,PLN,ERCC5,ATP5C1,GPX7,RHEB,ITCH,NDUFA4,SOD3,SRRM2,APEX1,EIF4A3,AMPD1,GMPS,SEC31A,PSMA3,BMP4,BABAM1,PORCN,POLR2G,BAG1,EIF4G1,GTF2B,CTNND1,BCAR1,RAD17,POLR2E,VTN,RBPJ,WNT3,PPP3CB,AMH,RRAGD,ACTL6A,TERT,SEC24A,FCER2,CDK4,GPT,NUP98,GSK3B,FZD7,GPX5,TGFBR1,BRCC3,TH,ATP5H</t>
+  </si>
+  <si>
+    <t>GGCX,VWF,SERPINC1,F9</t>
+  </si>
+  <si>
+    <t>F9,GGCX,F2,F7,F10,SERPINC1,VWF,PROC</t>
+  </si>
+  <si>
+    <t>RASA1,EPHB4,GLMN,EIF2AK4</t>
+  </si>
+  <si>
+    <t>PTGES3,PPP5C,KHDRBS1,RRAS,ACTR2,HSP90AB1,YES1,CCT4,EFNA5,YWHAB,HNRNPC,EFNB1,CAPZA2,GLMN,EPHB4,NCK2,EIF4E,NCK1,RPTOR,RASA1,EIF2S3,NF1,SDC2,FKBP4,PPP2CB,ERBB2,STIP1,DHX9,EIF2AK4,NR3C1,RAF1,EFNB2</t>
+  </si>
+  <si>
+    <t>YY1,TSC1,TSC2,SDHB,SDHD,KIF1B,RET,VHL,SDHAF2,SDHC,SDHA,DLST,SLC25A11,FH,NF1,MDH2,MAX,NTRK1,ESR2,MEN1</t>
+  </si>
+  <si>
+    <t>GAB1,ATP5A1,EGLN3,KMT2A,IRS2,UBA3,POU2F1,NRP1,NR1H3,SDHD,RICTOR,TSC1,SIRT1,ATF2,NOS3,PGF,PIK3CB,DLAT,EED,H3F3A,HIST1H4K,MAP2K1,HSP90AB1,PC,ARID1A,EZR,CDKN1B,UBE2D2,GCDH,UBE2D1,NCOA2,SRF,TCP1,SOX2,ATG7,RXRB,PSMB6,ANPEP,INS,PAK2,SMURF1,DLST,YWHAB,VBP1,SDHA,BTRC,AURKA,SUCLG2,TTI1,KIT,SPRED1,HCFC1,SOCS1,SOS1,GCSH,NGF,HIST1H4J,VHL,UBE2D3,ARNT,AK6,FBXW7,HIST1H4B,ACOX1,HIST1H4I,ADRBK1,YWHAG,GRB10,NEDD4,RET,AKT3,ATP5B,EGLN1,YWHAQ,PAK3,RHOQ,RXRA,MEF2D,GIT1,CRK,SUZ12,SOCS2,CUL2,ACO2,INSR,FHL2,NRIP1,KEAP1,HGF,HIST1H4D,RNF2,HIST2H4A,TP73,NTRK1,MLST8,PRKAB2,SIRT3,ASH2L,HDAC4,GLI3,RUVBL2,NEDD4L,ECSIT,HIST2H4B,UBE3A,TRAP1,CRKL,XPO1,SUCLG1,NR0B1,ACLY,HIST1H2BJ,GAPDH,TPI1,EPO,POU5F1,YWHAH,APPL1,CUL5,HIST1H4H,PIK3CG,NANOG,PRKCD,PAK1,SDC1,DNAJA3,SFN,PTGES3,SDHAF2,IGF1,PRKAA2,HDAC5,GGT5,PDK2,YY1,SDHC,H3F3B,KDM6B,RRAGC,MYCN,NDUFA2,RPS6KB1,PPARA,SREBF1,TELO2,MDH2,GDNF,CS,GIPC1,TSC2,NDUFS1,MAPK9,H2AFZ,NEDD8,FKBP8,YEATS4,NDUFV1,PRKAB1,NCK1,VAV1,FRS2,ATF4,ASNS,EPAS1,NR3C1,ATP5D,HSPD1,KDR,CUL3,ASS1,HSCB,NDN,DOK1,NPM1,PDHB,NDUFA9,MEN1,MAX,IRS1,GNB1,PARK7,HIST1H4A,MAPK10,IGF1R,ERBB2,KITLG,RASGRF1,RBBP5,TOMM70A,ACSS2,MED1,HIST1H4L,BDNF,KAT5,HIST4H4,PDHX,NCOA3,MAPK11,SOCS3,SQSTM1,PARP1,KMT2D,APP,RASA1,AKT2,DLD,GRPEL1,NGFR,FH,ATG5,PRR5,EDN1,FGF2,NDUFS5,RAN,NCOA1,SUCLA2,RRAS2,DEPTOR,PIAS4,GOT1,SDC2,SMARCB1,MAPKAPK2,NDUFS8,HSPA9,SKP2,CDKN1A,PPARG,KAT2A,ADRB2,TOMM40,EZH2,CDC25B,OGDH,E2F1,LPL,ME2,PITRM1,ITPR1,ACACB,PRKACA,PRKAG3,FOXO4,AGXT,JADE1,JUND,PRKAA1,NAE1,HTT,IL1B,SUMO1,ESR2,HIST3H3,EIF4E,MEAF6,YWHAE,SUGT1,TRRAP,PKM,SHC2,PRKAG2,PDCL,TP63,PPARGC1A,SOD1,AXIN1,RRAGA,ATP6V1A,MAP3K1,PRKCZ,MAP3K3,PDLIM7,LDHA,RPTOR,EHHADH,ESRRA,RAF1,TCEB2,NDUFV2,GRB7,SORT1,SIN3A,SDHB,SP1,GOT2,ABL1,HDAC3,RPS6KA1,NR0B2,NF1,PCK1,ACACA,ATP5C1,RHEB,PRKAG1,CEBPB,TCEB1,RRAS,ARAF,BAG1,STK11,ACTL6A,TERT,CDK4,LDHD,SETD1A,GSK3B,SNAI1,ATP5H</t>
+  </si>
+  <si>
+    <t>PDGFRL,PIK3CA,CTNNB1,CASP8,TP53,IGF2R,AXIN1,APC,MET,CHEK2,RB1,ATP8B1,ABCB4,ATP7B,KIT,SMARCB1</t>
+  </si>
+  <si>
+    <t>GBA,PSAP</t>
+  </si>
+  <si>
+    <t>PSAP,GBA</t>
+  </si>
+  <si>
+    <t>SF3B1,TET2,SH2B3,CALR,MPL,JAK2,THPO,BCR,ABL1,GNA14</t>
+  </si>
+  <si>
+    <t>GNG2,GABARAP,THPO,TDGF1,ITGAM,GATA4,DOK1,IRS2,HCK,UBQLN1,HSP90B1,SLC9A3R2,GNB1,THBS1,HLA-A,PTPN6,P4HB,TP73,PDGFB,CD44,NTRK1,ERBB2,IL4,KITLG,PIK3CB,KLRC1,PPARGC1A,CRKL,SOCS3,LRP8,CSNK2A1,EPO,GNA14,CEBPA,PIK3CG,NANOG,SNCA,IL2RG,CD247,CD4,CSF3R,PLCB2,EDN1,OGT,ABL1,GAB2,FLT3,PAWR,TET2,PLCB1,KIR2DL3,LILRB1,KIT,ZAP70,PDGFRB,SOS1,RUNX1,PLCB3,SH2B3,CALR,CXCL8,CSF2,LRP1,ARNT,CXCR2,CSF2RB,ARRB1,MPL,B2M,SPI1,SIRPA,BCR,TERT,ADIPOQ,EPOR,SFTPD,VAV1,CSF3,PIK3R2,WT1,EPAS1,HSPA5,INPP5D,CRK,IL3</t>
+  </si>
+  <si>
+    <t>NF2,NDP,COL18A1,GNAQ,AIRE,FZD4,LRP5,TSPAN12,ZNF408,CTNNB1</t>
+  </si>
+  <si>
+    <t>FZD4,IQGAP1,KDR,WNT5A,WNT1,AXIN1,CUL3,COL18A1,DVL1,NCL,KAT5,BDNF,LGR4,MMP7,WWC1,FGFR1,DVL2,SDC4,CTNND1,EZH2,NF2,YY1,WNT3A,ILK,CDH2,MMP9,TSPAN12,GPC1,APP,VAV1,ITGA5,LRP5,AIRE,NDP,ADAM10,CD44,NOTCH3,MCAM,GSK3B,FZD7,HIST2H3PS2,TOP1,LRP6,GJA1,TP53BP1,RORA,TGM2,MMP3</t>
+  </si>
+  <si>
+    <t>GBA,TSPYL1,PON2,PON3,PON1,FIG4,CHCHD10,PFN1,DAO,CHMP2B,CCNF,OPTN,CFAP410,UBQLN2,VCP,VAPB,HNRNPA1,ERBB4,FUS,ANXA11,ANG,GLE1,SOD1,SQSTM1,TARDBP,C9orf72,MATR3,TUBA4A</t>
+  </si>
+  <si>
+    <t>APP,ACTA2,CCM2,PDCD10,KRIT1,NOTCH3</t>
+  </si>
+  <si>
+    <t>GAB1,STRIP1,MAP2K4,GATA4,MYL6,TGFB1,MAP3K11,KALRN,WNT3A,MAX,PARD6A,ARHGDIA,MAPK10,SMAD6,CTTNBP2NL,ATF2,TUBA4A,PSEN1,CD44,NTRK1,MST4,CTTN,MYL9,MOB4,DISC1,PPP1R12B,MAPK13,SMAD1,CRKL,MAP2K1,RAP1A,PPP1CA,KAT5,EPS15,MAPK11,MYH11,MAP3K3,EZR,SQSTM1,LRP8,RTN4R,MYLK,TGFBR2,TGFB2,PDCD10,APP,AKT2,KRIT1,PPP1CC,ROCK2,PPP2CB,ADAM10,SNCA,PAK1,PSEN2,FURIN,NOTCH3,PPP1CB,HEY2,STRN4,MAP3K7,RAF1,PSENEN,NGFR,PAK2,CCM2,SMURF1,IRAK1,RELN,CTNNA1,MAP2K7,STRN,ILK,PPP2R5A,ACTA2,MYH10,FKBP1A,MAP2K3,RHOB,RHOC,MAPT,DUSP16,MYL12B,CALM1,MYL2,NCSTN,MAPK8IP1,PPP1R12A,MAPK9,PPFIA2,MAPK12,STRN3,CDK5,NTN1,CTNND1,PPFIA1,RAP1B,RAPGEF1,NCK2,VAV2,APBA1,ROCK1,AKT3,CDH5,TRAF3IP3,PPP2R1B,CTTNBP2,TRAF3,PPP2R1A,SMAD5,GSK3B,HEY1,HSPA5,TGFBR1,NUMB,APOE,APH1B,DAB1,CRK,APH1A</t>
+  </si>
+  <si>
+    <t>GLA,TSC1,TSC2</t>
+  </si>
+  <si>
+    <t>GBE1,TSC2,GYG1,EZR,GAA,TSC1,MGAM,GYS1,LOC93432,FAS,GALC,GLA,SMPD1,GSK3B</t>
+  </si>
+  <si>
+    <t>TP53,CHEK2,APC,ALK,PHOX2B,FH,PRKAR1A</t>
+  </si>
+  <si>
+    <t>NME2,PRKAR1A,ACO2,NPM1,UBQLN1,CENPA,SUMO1,BCL2L1,SDHD,GNB1,HIST1H4D,HIST1H4A,HIST2H4A,CDC45,ASPM,YWHAE,SMC3,BRCA2,PRC1,PIK3CB,ALK,RNF8,PDCL,CDC25A,HIST2H4B,HIST1H4K,AXIN1,HIST1H4L,GPT2,KAT5,MRE11A,XPO1,MSH2,NBN,HIST4H4,MAPK11,SUCLG1,ARID1A,CDKN1B,APC,GLI1,GAPDH,TPI1,KIF2C,YWHAH,SIAH1,TPX2,CDKN2D,AKT2,RAD23B,HIST1H4H,PIK3CG,AGXT2,CREM,HDAC8,EXO1,FH,TP53BP1,SFN,MDC1,CHEK2,GSK3A,SDHB,SP1,CFTR,YWHAB,RAN,SDHA,CSNK1A1,BTRC,MCM4,AURKA,SUCLG2,SDHC,BAD,MAPT,NF1,SMC1A,CDCA8,DUT,HSPA9,HIST1H4J,CS,FOXM1,TOP2A,CHD4,PRKDC,MUS81,MDM4,HIST1H4B,H2AFZ,CDK5,HIST1H4I,CDC25C,ADRBK1,NCAPG,AKAP1,YWHAG,RAD9A,GPT,RAD50,PDS5B,GSK3B,ITPR1,PRKAR2B,YWHAQ,MCM5,PRKACA,ALDH7A1,KIF23,HSPD1</t>
+  </si>
+  <si>
+    <t>PIGA,STOX1,CORIN</t>
+  </si>
+  <si>
+    <t>IGLL5,POMT2,GATA4,NCOR2,ACTA1,PIGR,WWTR1,BCL6,MAPK12,HDAC5,DPM2,HCK,ABL1,PIGA,UTRN,SNTA1,DMD,NPPA,CD79A,POMT1,IGHV4-38-2,MEF2C,CORIN,HDAC4,DAG1,LAMA2</t>
+  </si>
+  <si>
+    <t>SMAD9,CAV1,KCNK3,BMPR2,STK11,DCC,RNF6,TGFBR2,WWOX,LZTS1,FSHR,PDGFRA,SDHA,SDHB,SDHC,KIT,ENG,ACVRL1,GDF2,SMAD4</t>
+  </si>
+  <si>
+    <t>GNG2,KDR,ACVR2B,ATP5J2,SMURF2,ATP5A1,PDGFRA,HSCB,DOK1,TGFB1,PRKAR1A,ACO2,UQCRC2,PRKAA1,TGFB3,DVL2,PDGFC,BCL2L1,ARRB2,BMPR1A,IRS1,BMPR2,GNB1,PARK7,TAB1,TFAP2C,PTPN6,YWHAE,TSC1,SMAD6,IGF1R,BMP2,KCNK3,TP73,GDF2,SIRT1,RAC3,PDGFB,NTRK1,ERBB2,SIK3,KITLG,PTH1R,GREM1,NEO1,SKI,GRK4,DLAT,NEDD4L,MIOS,ERBB3,ECSIT,CXCR4,PDCL,GNAS,ACSS2,H3F3A,SOD1,AXIN1,MAP2K2,SMAD1,COX5B,ACVRL1,MAP2K1,CRKL,TRAP1,BMPR1B,KAT5,RRAGA,HIST4H4,ATP6V1A,IL1R1,MAP3K1,PHB2,SUCLG1,CDKN1B,CRHR1,ACVR2A,ENG,GAPDH,TPI1,INHBB,TGFBR2,EPO,TGFB2,TRIO,TFR2,YWHAH,TGFBR3,RASA1,SIK1,AKT2,APPL1,APP,KDM1A,GRIN2A,CTCF,DCC,NDUFB8,SNCA,ATG7,PHB,RAB5A,IL1RAP,CSNK2B,FSHB,PRKACB,FER,MAP3K7,RAF1,LRP6,PRKAR1B,FST,ERBB4,INS,FH,NDUFV2,SMURF1,BMP10,PRKACG,GSK3A,PRKAR2A,SIN3A,XIAP,SDHB,EDN1,PRKAA2,CFTR,IRAK1,YWHAB,NDUFS5,ABL1,RAN,SDHA,HFE2,BTRC,WBP2,SUCLA2,PEBP1,SMAD9,SUCLG2,RAC2,WWOX,MAP4K1,SDHC,SNAI2,H3F3B,GRIN2B,SMAD7,DAXX,MMP9,FKBP1A,RRAGC,NDUFA2,KIT,PDGFRB,PCK1,SOCS1,ACACA,DOCK1,SOS1,ATP5C1,PMPCA,NDUFS8,MDH2,ITCH,HSPA9,MYD88,PRKAG1,AKT1S1,CS,PPARG,NDUFA4,CASP9,TRIM9,YAP1,TOMM20,AVPR2,ACVR1,TBC1D4,CTGF,KAT2A,SESN2,DEK,TSC2,NDUFS1,ARNT,WWP1,YES1,ADRB2,ARRB1,H2AFZ,FSHR,TOMM40,MATK,TGFBRAP1,TAB2,NTN1,CTNND1,EZH2,STK11,BCAR1,UQCRC1,UNC5B,NDUFV1,ADRBK1,BAMBI,PRICKLE1,YWHAG,GRB10,EPOR,PRKAB1,NEDD4,ITGB2,NCK1,AKT3,PPM1A,VAV1,NRG1,INHA,ATP5B,SERPINE1,MAP4K4,PITRM1,PIK3R2,PPP2R1A,SMAD5,ITPR1,PRKAR2B,ADORA2B,GSK3B,EPAS1,TGFBR1,CXCL12,PRKACA,PECAM1,ITGAV,PMPCB,FOXO4,GIT1,ATP5D,CRK,HSPD1,ATP5H</t>
+  </si>
+  <si>
+    <t>GGCX,FZD4,CYSLTR2,BAP1,GNA11,GNAQ</t>
+  </si>
+  <si>
+    <t>CFH,DGKE,CFHR5,CFHR1</t>
+  </si>
+  <si>
+    <t>CFH,CFHR1,CFHR5,C3</t>
   </si>
 </sst>
 </file>
@@ -619,9 +607,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,265 +935,266 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2.875</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.5889777029869503</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3.5256410256410202</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.6923076923076901</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.2173913043478199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2.3333333333333299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3.3333333333333299</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.3765625000000004</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2.9047619047619002</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.4285714285714199</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.9701492537313401</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>3.6666666666666599</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.8490566037735801</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2.3333333333333299</v>
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>2.3333333333333299</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.3289473684210504</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3.6071428571428501</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.6565656565656504</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>1.6666666666666601</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
         <v>3</v>
       </c>
+      <c r="B16" s="2">
+        <v>4.2321699544764799</v>
+      </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
